--- a/dados/SimulacaoPeloDia.xlsx
+++ b/dados/SimulacaoPeloDia.xlsx
@@ -571,12 +571,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.9987</t>
+          <t>0.9992</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.5642</t>
+          <t>0.5883</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -595,17 +595,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>R$ -452.57</t>
+          <t>R$ -375.97</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>R$ 252.48</t>
+          <t>R$ -17.93</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
@@ -647,12 +647,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.9963</t>
+          <t>0.9976</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4400</t>
+          <t>0.4645</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -671,17 +671,17 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>R$ -308.05</t>
+          <t>R$ -330.90</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>R$ 654.64</t>
+          <t>R$ -71.70</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-16</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.9929</t>
+          <t>0.9952</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.3613</t>
+          <t>0.3847</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -747,12 +747,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>R$ -257.52</t>
+          <t>R$ -366.46</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>R$ 77.51</t>
+          <t>R$ -77.41</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -799,17 +799,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.9871</t>
+          <t>0.9911</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2893</t>
+          <t>0.3107</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ITM → OTM</t>
+          <t>ITM → ATM</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -823,17 +823,17 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>R$ -239.02</t>
+          <t>R$ -363.35</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>R$ 34.03</t>
+          <t>R$ -69.38</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
@@ -875,12 +875,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.9770</t>
+          <t>0.9843</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.1348</t>
+          <t>0.2447</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -892,19 +892,19 @@
         <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="M6" t="n">
         <v>6</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>R$ -293.13</t>
+          <t>R$ -372.29</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>R$ 0.00</t>
+          <t>R$ -108.90</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.6114</t>
+          <t>0.6628</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>R$ 652.14</t>
+          <t>R$ 929.08</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>R$ 718.16</t>
+          <t>R$ 929.08</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-18</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.3832</t>
+          <t>0.4271</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>R$ 29.85</t>
+          <t>R$ 237.74</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>R$ 939.38</t>
+          <t>R$ 908.51</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-10</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.3271</t>
+          <t>0.3690</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.9981</t>
+          <t>0.9982</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1127,17 +1127,17 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>R$ 57.09</t>
+          <t>R$ 172.17</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>R$ 903.17</t>
+          <t>R$ 853.99</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-10</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.4977</t>
+          <t>0.5522</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1203,17 +1203,17 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>R$ 1554.79</t>
+          <t>R$ 1735.24</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>R$ 1630.54</t>
+          <t>R$ 1735.24</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
     </row>
@@ -1255,12 +1255,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.2263</t>
+          <t>0.2569</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.7238</t>
+          <t>0.7320</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1279,17 +1279,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>R$ 89.57</t>
+          <t>R$ 242.57</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>R$ 546.04</t>
+          <t>R$ 550.33</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-10</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.1751</t>
+          <t>0.2016</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.1638</t>
+          <t>0.1700</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1355,17 +1355,17 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>R$ 69.16</t>
+          <t>R$ 254.26</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>R$ 342.92</t>
+          <t>R$ 353.57</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-10</t>
         </is>
       </c>
     </row>
